--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_34.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>840598.3173672549</v>
+        <v>881305.2801640116</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8239990.211329147</v>
+        <v>8239990.211329146</v>
       </c>
     </row>
     <row r="11">
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>151.3845250273786</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.58276652364342</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>169.4196532835174</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>190.3226398274043</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>150.7761107361271</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>34.1005047385018</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>48.36475989031657</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>180.3960620294621</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>226.9736586744967</v>
+        <v>44.19095768640539</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>169.0602894095009</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>43.51025861324139</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>123.4027026842193</v>
+        <v>111.897568142027</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>94.16481274941263</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>204.1291651532053</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274057</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>158.001965458471</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>210.968521252134</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274074</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>73.09822644459267</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>40.71096332175367</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>235.2707607354173</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2.491034229878137</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>28.33724577871008</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.64843562452401</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>146.2787299119459</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>109.5014379987522</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3244,16 +3244,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784684</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.05202235368819</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>112.4346037011847</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710094</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>244.1009333794014</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>221.0549046494868</v>
       </c>
       <c r="U43" t="n">
-        <v>144.425433495909</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,16 +3977,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722635</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>113.3523092451435</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,16 +4355,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2489.206739904899</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2270.572072876962</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2016.810287515053</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1685.747400171482</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
         <v>1332.978744901368</v>
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,19 +4419,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>705.3181089300269</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>705.3181089300269</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>491.0296857481896</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>491.0296857481896</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="U4" t="n">
-        <v>201.8560754027576</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="V4" t="n">
-        <v>201.8560754027576</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="W4" t="n">
-        <v>201.8560754027576</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="X4" t="n">
-        <v>201.8560754027576</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>527.5811021474123</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1763.586886263858</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2489.821299795052</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2137.052644524937</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1763.586886263858</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1763.586886263858</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4644,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>693.6840299251195</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>693.6840299251195</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>466.3758425937212</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>466.3758425937212</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6913543878343</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>854.9003034538798</v>
+        <v>1527.841322636249</v>
       </c>
       <c r="C8" t="n">
-        <v>854.9003034538798</v>
+        <v>1158.878805695837</v>
       </c>
       <c r="D8" t="n">
-        <v>854.9003034538798</v>
+        <v>800.6131070890865</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>800.6131070890865</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>389.6272022994789</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4832,22 +4832,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304456</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960885</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>1618.505393690771</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X8" t="n">
-        <v>1245.039635429692</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="Y8" t="n">
-        <v>854.9003034538798</v>
+        <v>1914.44116270037</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>498.8626623130036</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="X10" t="n">
-        <v>498.8626623130036</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.8626623130036</v>
+        <v>654.0747340636873</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L12" t="n">
-        <v>936.0352208116482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M12" t="n">
-        <v>1704.40336720411</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N12" t="n">
-        <v>2048.924022841727</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O12" t="n">
-        <v>2328.464088060424</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>993.2877828087275</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C13" t="n">
-        <v>824.3515998808206</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D13" t="n">
-        <v>674.2349604684848</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1217.073198019222</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>993.2877828087275</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>993.2877828087275</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>993.2877828087275</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W13" t="n">
-        <v>993.2877828087275</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X13" t="n">
-        <v>993.2877828087275</v>
+        <v>741.8439190510085</v>
       </c>
       <c r="Y13" t="n">
-        <v>993.2877828087275</v>
+        <v>741.8439190510085</v>
       </c>
     </row>
     <row r="14">
@@ -5264,37 +5264,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>754.8724882112625</v>
+        <v>519.8631468864791</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.870190757661</v>
+        <v>1288.23129327894</v>
       </c>
       <c r="N15" t="n">
-        <v>1823.732818421694</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.272883640391</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>412.2823606383756</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383756</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>1150.481660716884</v>
+        <v>1051.027905301125</v>
       </c>
       <c r="W16" t="n">
-        <v>861.0644906799231</v>
+        <v>761.6107352641649</v>
       </c>
       <c r="X16" t="n">
-        <v>633.0749397819058</v>
+        <v>761.6107352641649</v>
       </c>
       <c r="Y16" t="n">
-        <v>412.2823606383756</v>
+        <v>540.8181561206347</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5558,7 +5558,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704856</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="L18" t="n">
-        <v>1002.792923427374</v>
+        <v>2948.395228855329</v>
       </c>
       <c r="M18" t="n">
-        <v>1323.128242957076</v>
+        <v>3716.76337524779</v>
       </c>
       <c r="N18" t="n">
-        <v>1667.648898594694</v>
+        <v>4521.174953511942</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.33306393444</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.33306393444</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5774,10 +5774,10 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L21" t="n">
-        <v>904.39166832551</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="M21" t="n">
-        <v>1224.726987855212</v>
+        <v>1157.264000062947</v>
       </c>
       <c r="N21" t="n">
-        <v>1569.24764349283</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O21" t="n">
-        <v>1818.001057576792</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P21" t="n">
-        <v>2338.301679312539</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>834.5937666237588</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6575836958519</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6575836958519</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6575836958519</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>518.7676361979416</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>862.1113288466635</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V22" t="n">
-        <v>607.4268406407766</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W22" t="n">
-        <v>318.0096706038159</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>1016.242231453999</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>1016.242231453999</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823776</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514073</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="K24" t="n">
-        <v>469.5954827887335</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="L24" t="n">
-        <v>699.5585886570826</v>
+        <v>2866.678611711737</v>
       </c>
       <c r="M24" t="n">
-        <v>1019.893908186784</v>
+        <v>2866.678611711737</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.414563824402</v>
+        <v>3671.090189975888</v>
       </c>
       <c r="O24" t="n">
-        <v>2033.878325127062</v>
+        <v>4340.553951278547</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>879.2482765610114</v>
+        <v>3833.526634149344</v>
       </c>
       <c r="C25" t="n">
-        <v>710.3120936331045</v>
+        <v>3833.526634149344</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>3683.409994737009</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>3683.409994737009</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>3683.409994737009</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>4571.725934227852</v>
       </c>
       <c r="V25" t="n">
-        <v>1168.665446597972</v>
+        <v>4571.725934227852</v>
       </c>
       <c r="W25" t="n">
-        <v>879.2482765610114</v>
+        <v>4282.308764190891</v>
       </c>
       <c r="X25" t="n">
-        <v>879.2482765610114</v>
+        <v>4054.319213292874</v>
       </c>
       <c r="Y25" t="n">
-        <v>879.2482765610114</v>
+        <v>3833.526634149344</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L27" t="n">
-        <v>479.0983322613959</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>772.8730769161742</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.809122337731</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>4034.429209302938</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>3865.493026375032</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>3865.493026375032</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>3717.579932792638</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U28" t="n">
-        <v>1037.48362228133</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V28" t="n">
-        <v>782.7991340754431</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="W28" t="n">
-        <v>493.3819640384826</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="X28" t="n">
-        <v>265.3924131404652</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404652</v>
+        <v>4034.429209302938</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6479,16 +6479,16 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6497,13 +6497,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614725</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>114.8309886909499</v>
       </c>
       <c r="K30" t="n">
-        <v>388.8958536704856</v>
+        <v>525.7212575354627</v>
       </c>
       <c r="L30" t="n">
-        <v>1002.792923427374</v>
+        <v>755.6843634038119</v>
       </c>
       <c r="M30" t="n">
-        <v>1323.128242957076</v>
+        <v>1524.052509796273</v>
       </c>
       <c r="N30" t="n">
-        <v>1667.648898594694</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="O30" t="n">
-        <v>2337.112659897353</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.1532743881928</v>
+        <v>3806.831696841474</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>3637.895513913567</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>3487.778874501231</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>3487.778874501231</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>3487.778874501231</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S31" t="n">
-        <v>1440.685527502828</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T31" t="n">
-        <v>1440.685527502828</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U31" t="n">
-        <v>1440.685527502828</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="V31" t="n">
-        <v>1186.001039296941</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W31" t="n">
-        <v>896.58386925998</v>
+        <v>4027.624275985004</v>
       </c>
       <c r="X31" t="n">
-        <v>668.5943183619627</v>
+        <v>4027.624275985004</v>
       </c>
       <c r="Y31" t="n">
-        <v>447.8017392184325</v>
+        <v>3806.831696841474</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="K33" t="n">
-        <v>402.8596948937494</v>
+        <v>2701.359956123306</v>
       </c>
       <c r="L33" t="n">
-        <v>1016.756764650638</v>
+        <v>2948.12508402977</v>
       </c>
       <c r="M33" t="n">
-        <v>1785.124911043099</v>
+        <v>3716.493230422231</v>
       </c>
       <c r="N33" t="n">
-        <v>1785.124911043099</v>
+        <v>4061.013886059849</v>
       </c>
       <c r="O33" t="n">
-        <v>2033.878325127062</v>
+        <v>4340.553951278546</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="34">
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>670.8029673508215</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>670.8029673508215</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>670.8029673508215</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>522.8898737684284</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>375.999926270518</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>207.8246045903386</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>207.8246045903386</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6874,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V34" t="n">
-        <v>755.183133481126</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="W34" t="n">
-        <v>465.7659634441654</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="X34" t="n">
-        <v>465.7659634441654</v>
+        <v>670.8029673508215</v>
       </c>
       <c r="Y34" t="n">
-        <v>244.9733843006353</v>
+        <v>670.8029673508215</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6926,61 +6926,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>258.7805275569174</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K36" t="n">
-        <v>384.1380876147548</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L36" t="n">
-        <v>998.0351573716434</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="M36" t="n">
-        <v>1318.370476901345</v>
+        <v>865.5852378527475</v>
       </c>
       <c r="N36" t="n">
-        <v>2122.782055165496</v>
+        <v>1364.414563824402</v>
       </c>
       <c r="O36" t="n">
-        <v>2371.535469249458</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P36" t="n">
         <v>2554.178946862809</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4391.604587469458</v>
+        <v>807.3465877976912</v>
       </c>
       <c r="C37" t="n">
-        <v>4222.668404541551</v>
+        <v>638.4104048697843</v>
       </c>
       <c r="D37" t="n">
-        <v>4072.551765129215</v>
+        <v>638.4104048697843</v>
       </c>
       <c r="E37" t="n">
-        <v>3924.638671546822</v>
+        <v>490.4973112873912</v>
       </c>
       <c r="F37" t="n">
-        <v>3777.748724048912</v>
+        <v>490.4973112873912</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368732</v>
+        <v>322.3219896072118</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U37" t="n">
-        <v>4660.934562929845</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>4660.934562929845</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W37" t="n">
-        <v>4660.934562929845</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X37" t="n">
-        <v>4660.934562929845</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y37" t="n">
-        <v>4440.141983786315</v>
+        <v>988.9950526279309</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7166,7 +7166,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7175,49 +7175,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>469.3397794245874</v>
       </c>
       <c r="M39" t="n">
-        <v>1609.589088435861</v>
+        <v>789.6750989542892</v>
       </c>
       <c r="N39" t="n">
-        <v>1954.109744073479</v>
+        <v>1364.414563824402</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>4093.57485447473</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>3924.638671546823</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>3924.638671546823</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>3924.638671546823</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="U40" t="n">
-        <v>1271.749344574921</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="V40" t="n">
-        <v>1017.064856369034</v>
+        <v>4503.212870202987</v>
       </c>
       <c r="W40" t="n">
-        <v>727.647686332073</v>
+        <v>4503.212870202987</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>4275.22331930497</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>4275.22331930497</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,22 +7400,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515098</v>
@@ -7433,28 +7433,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K42" t="n">
-        <v>599.0061720308524</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L42" t="n">
-        <v>845.7712999373165</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M42" t="n">
-        <v>1614.139446329778</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N42" t="n">
-        <v>2418.551024593929</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O42" t="n">
-        <v>2418.551024593929</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>415.8104215925219</v>
+        <v>4055.714583485209</v>
       </c>
       <c r="C43" t="n">
-        <v>415.8104215925219</v>
+        <v>3886.778400557302</v>
       </c>
       <c r="D43" t="n">
-        <v>415.8104215925219</v>
+        <v>3886.778400557302</v>
       </c>
       <c r="E43" t="n">
-        <v>415.8104215925219</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>4526.49168710189</v>
       </c>
       <c r="U43" t="n">
-        <v>818.2514655662918</v>
+        <v>4237.363048315448</v>
       </c>
       <c r="V43" t="n">
-        <v>818.2514655662918</v>
+        <v>4237.363048315448</v>
       </c>
       <c r="W43" t="n">
-        <v>818.2514655662918</v>
+        <v>4237.363048315448</v>
       </c>
       <c r="X43" t="n">
-        <v>818.2514655662918</v>
+        <v>4237.363048315448</v>
       </c>
       <c r="Y43" t="n">
-        <v>597.4588864227617</v>
+        <v>4237.363048315448</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L45" t="n">
-        <v>1122.004430061687</v>
+        <v>343.98221936675</v>
       </c>
       <c r="M45" t="n">
-        <v>1442.339749591389</v>
+        <v>1112.350365759212</v>
       </c>
       <c r="N45" t="n">
-        <v>1442.339749591389</v>
+        <v>1442.212993423244</v>
       </c>
       <c r="O45" t="n">
-        <v>2111.803510894048</v>
+        <v>2111.676754725904</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3459.155393916677</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C46" t="n">
-        <v>3459.155393916677</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D46" t="n">
-        <v>3459.155393916677</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916677</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916677</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014293</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T46" t="n">
-        <v>4637.069157803799</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U46" t="n">
-        <v>4347.940519017357</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V46" t="n">
-        <v>4093.25603081147</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="W46" t="n">
-        <v>3803.838860774509</v>
+        <v>594.9539715530981</v>
       </c>
       <c r="X46" t="n">
-        <v>3575.849309876492</v>
+        <v>594.9539715530981</v>
       </c>
       <c r="Y46" t="n">
-        <v>3459.155393916677</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>14.99144489699324</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,10 +8781,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>282.1585173815951</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,10 +9015,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9255,16 +9255,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>178.0329731967915</v>
+        <v>187.6166506935721</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,13 +9483,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>287.2117562961089</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,10 +9498,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>200.1403268751267</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,16 +9966,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,10 +10203,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10431,22 +10431,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627456</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>121.2852110416908</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>170.6734326339615</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10686,7 +10686,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10917,13 +10917,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>188.2810042587317</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,16 +11151,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>28.86052057410234</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>182.1993967757958</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23710,13 +23710,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>128.7349406396087</v>
+        <v>140.240075181801</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>85.66716743252466</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>82.39383318338565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>8.49160300490658</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>75.26883114644335</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>93.39534201878492</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>211.4266800020743</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>50.96659166316002</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>216.0936191222167</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>138.1563226846675</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24886,13 +24886,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>140.2723743590792</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33.55325026999137</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0.9178074655197435</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,16 +25132,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>131.7799578282491</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>36.47922466635147</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,13 +25558,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25603,19 +25603,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>8.036709944426633</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.4926564089024907</v>
       </c>
       <c r="U43" t="n">
-        <v>141.8119189026683</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,13 +26029,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>173.1706890914475</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>103.0576765518774</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="16">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
         <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="F2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="F2" t="n">
-        <v>664749.4015541049</v>
-      </c>
       <c r="G2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="H2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="I2" t="n">
         <v>664749.4015541046</v>
       </c>
-      <c r="H2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.4015541048</v>
-      </c>
       <c r="J2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="K2" t="n">
         <v>664749.4015541049</v>
@@ -26347,13 +26347,13 @@
         <v>664749.4015541049</v>
       </c>
       <c r="N2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="O2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541046</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.518268190480865e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>7.723256517081232e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758062</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905757997</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758418</v>
+      </c>
+      <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="F4" t="n">
+      <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905759186</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="M4" t="n">
-        <v>787.7936905759001</v>
+        <v>787.7936905758102</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757877</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757817</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905757468</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26488,28 +26488,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114000.592073932</v>
+        <v>-114000.5920739318</v>
       </c>
       <c r="C6" t="n">
-        <v>475967.2871406121</v>
+        <v>475967.2871406124</v>
       </c>
       <c r="D6" t="n">
         <v>475967.2871406124</v>
       </c>
       <c r="E6" t="n">
-        <v>46814.24543791635</v>
+        <v>46814.24543791614</v>
       </c>
       <c r="F6" t="n">
-        <v>571974.2819148124</v>
+        <v>571974.2819148123</v>
       </c>
       <c r="G6" t="n">
-        <v>571974.2819148122</v>
+        <v>571974.281914812</v>
       </c>
       <c r="H6" t="n">
-        <v>571974.2819148123</v>
+        <v>571974.2819148126</v>
       </c>
       <c r="I6" t="n">
-        <v>571974.2819148124</v>
+        <v>571974.281914812</v>
       </c>
       <c r="J6" t="n">
-        <v>395551.0627222193</v>
+        <v>395551.0627222191</v>
       </c>
       <c r="K6" t="n">
         <v>571974.2819148123</v>
@@ -26555,13 +26555,13 @@
         <v>437173.2666809753</v>
       </c>
       <c r="N6" t="n">
-        <v>571974.2819148126</v>
+        <v>571974.2819148123</v>
       </c>
       <c r="O6" t="n">
-        <v>571974.2819148124</v>
+        <v>571974.2819148123</v>
       </c>
       <c r="P6" t="n">
-        <v>571974.2819148124</v>
+        <v>571974.2819148123</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26710,13 +26710,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567694e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26808,7 +26808,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26820,16 +26820,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>23.03118778159288</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.539983431270873</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>55.61545217456683</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>164.3604017932787</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,13 +27673,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>176.9761477340078</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27819,22 +27819,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>112.564687241656</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>333.5656101819452</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>233.3881079913329</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>59.5493396620943</v>
+        <v>242.3320406501856</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-1.392663762089796e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-6.107776353646526e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.751381063403296e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-1.932676241267473e-12</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30697,16 +30697,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-1.735792199630443e-12</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -30715,7 +30715,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
     </row>
     <row r="45">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,28 +31139,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31367,7 +31367,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653282</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31516,10 +31516,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>162.4518126576413</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,22 +32075,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>270.8445749475443</v>
       </c>
       <c r="M15" t="n">
-        <v>422.8912959764618</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>341.0678223458549</v>
@@ -32099,13 +32099,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,31 +32312,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,34 +32546,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,40 +32701,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961194</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>81.51477688711907</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>305.2700472171166</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>331.8073893088565</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>319.6115048322617</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>144.6294420511759</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>34.77051449707557</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>14.1048901245089</v>
+        <v>243.9436737040675</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>168.9387261055273</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>232.5442517499949</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565529</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>417.7792648720318</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>34.36070661921758</v>
+        <v>321.8416777167511</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>264.2491498530175</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>139.5622729371507</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>132.2901951676701</v>
       </c>
       <c r="M15" t="n">
-        <v>746.4623258044434</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>460.3966754378997</v>
+        <v>45.02040624912765</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>620.4063296941218</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>288.1533596602009</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415069</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>208.1385749253387</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>537.5560127407016</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>193.2530095289823</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>667.612167092482</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>17.79181538450916</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>219.2588757226825</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37008,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>140.7286881627285</v>
+        <v>370.5674717422871</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>163.1953899965975</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>503.8680060319745</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>492.5097559335089</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>580.5449140102152</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>338.856442846671</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>741.3502947000134</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>218.8490678448245</v>
+        <v>506.330038942358</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3490472.738410281</v>
+        <v>3483455.72351857</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>948482.873853643</v>
+        <v>520755.3895679683</v>
       </c>
     </row>
     <row r="8">
@@ -664,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>238.3169164276892</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>91.19249374659596</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>78.31629253725379</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.90187484148926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,16 +952,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>181.3889767330367</v>
+        <v>85.9405902131499</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>234.2559520454602</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.6439119593682</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>140.1997601007686</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>177.9498744325401</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>10.45915033354384</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>182.0312563176645</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.37433807241459</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>24.53938653565442</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>71.47286448826321</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>196.2595680396012</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>76.48708851141302</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>179.4379011689203</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>27.55584844405763</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>55.43878055347988</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>88.08434199500984</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>57.5645290049876</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>205.5950156977304</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>17.11446387459785</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.18888322529661</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>106.8698659703784</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>191.6534898356754</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1282.700798147047</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="C2" t="n">
-        <v>913.7382812066351</v>
+        <v>847.844772492695</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>847.844772492695</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>462.0565198944508</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2042.766396472248</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1669.300638211168</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1669.300638211168</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,25 +4433,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>154.8539665087374</v>
+        <v>649.021618007188</v>
       </c>
       <c r="W4" t="n">
-        <v>154.8539665087374</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="X4" t="n">
-        <v>154.8539665087374</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>359.6044479702274</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1732.515907621104</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2302.336936304455</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>2119.115747685226</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="Y5" t="n">
-        <v>2119.115747685226</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4652,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4749,25 +4749,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1146.060557799969</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>1146.060557799969</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>787.7948591932184</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4837,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1704.527073573122</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1314.38774159731</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="9">
@@ -4889,13 +4889,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>404.8646000824888</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
@@ -4998,16 +4998,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>586.5130649127285</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>586.5130649127285</v>
+        <v>548.3816362947775</v>
       </c>
       <c r="X10" t="n">
-        <v>586.5130649127285</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y10" t="n">
-        <v>586.5130649127285</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5023,19 +5023,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5068,10 +5068,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>2649.889045452863</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>2649.889045452863</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>2768.915697157212</v>
+        <v>1009.263896089485</v>
       </c>
       <c r="N12" t="n">
-        <v>3573.327275421363</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O12" t="n">
-        <v>4242.791036724022</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P12" t="n">
-        <v>4763.091658459769</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>4850.224560916992</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>444.8933943850831</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C13" t="n">
-        <v>275.9572114571762</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D13" t="n">
-        <v>275.9572114571762</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E13" t="n">
-        <v>275.9572114571762</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>1115.126304597026</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>825.7091345600652</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286132</v>
+        <v>597.7195836620479</v>
       </c>
       <c r="Y13" t="n">
-        <v>444.8933943850831</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5360,22 +5360,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>293.6721935662467</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>907.5692633231354</v>
+        <v>802.0403666355641</v>
       </c>
       <c r="M15" t="n">
-        <v>1214.889396603097</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N15" t="n">
-        <v>1559.410052240715</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5597,25 +5597,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171745</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M18" t="n">
-        <v>1078.658454602814</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N18" t="n">
-        <v>1423.179110240432</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.642871543091</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>420.0340835819383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>420.0340835819383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>269.9174441696026</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>122.0043505872095</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>709.4512536188989</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>420.0340835819383</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>420.0340835819383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>420.0340835819383</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,31 +5734,31 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5776,13 +5776,13 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
@@ -5819,19 +5819,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K21" t="n">
         <v>508.1073603047985</v>
@@ -5840,16 +5840,16 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1884.71518556015</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1884.71518556015</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.8632439327646</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1426.721457943495</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>1137.304287906534</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>1137.304287906534</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.5117087630043</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5980,7 +5980,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5992,16 +5992,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6019,22 +6019,22 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
         <v>125.4002551675024</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
-        <v>138.7081686256434</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>752.6052383825321</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1059.925371662494</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N24" t="n">
-        <v>1404.446027300112</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>656.1762782006411</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C25" t="n">
-        <v>656.1762782006411</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D25" t="n">
-        <v>506.0596387883054</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E25" t="n">
-        <v>506.0596387883054</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028583</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1075.21084526296</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>1075.21084526296</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>876.9688573441713</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>656.1762782006411</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6220,22 +6220,22 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6244,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>263.5382936126481</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>877.4353633695368</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1645.803509761998</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N27" t="n">
-        <v>1645.803509761998</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3907.801489902814</v>
+        <v>493.0701069575856</v>
       </c>
       <c r="C28" t="n">
-        <v>3738.865306974907</v>
+        <v>493.0701069575856</v>
       </c>
       <c r="D28" t="n">
-        <v>3738.865306974907</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E28" t="n">
-        <v>3738.865306974907</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F28" t="n">
-        <v>3738.865306974907</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294727</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014291</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014291</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>4571.725934227849</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V28" t="n">
-        <v>4317.041446021963</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W28" t="n">
-        <v>4135.791040800831</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="X28" t="n">
-        <v>3907.801489902814</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="Y28" t="n">
-        <v>3907.801489902814</v>
+        <v>674.7185717878253</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,61 +6454,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>246.2867756623457</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>860.1838454192343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>1628.551991811696</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N30" t="n">
-        <v>1958.414619475728</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O30" t="n">
-        <v>1958.414619475728</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2478.715241211476</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>414.0663679705858</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C31" t="n">
-        <v>245.1301850426789</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>245.1301850426789</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1471.082080210369</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1471.082080210369</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1247.296664999875</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>958.1680262134333</v>
+        <v>1219.13208711157</v>
       </c>
       <c r="V31" t="n">
-        <v>703.4835380075465</v>
+        <v>964.447598905683</v>
       </c>
       <c r="W31" t="n">
-        <v>414.0663679705858</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="X31" t="n">
-        <v>414.0663679705858</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y31" t="n">
-        <v>414.0663679705858</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="32">
@@ -6679,46 +6679,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6727,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6785,19 +6785,19 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>738.0704661731477</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1058.405785702849</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1862.817363967</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1862.817363967</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2383.117985702747</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>649.9303982917385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>480.9942153638316</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>480.9942153638316</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>333.0811217814385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>186.1911742835281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1098.712528333286</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V34" t="n">
-        <v>1098.712528333286</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>1098.712528333286</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>870.7229774352686</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>649.9303982917385</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,10 +6925,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>1427.741252113633</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N36" t="n">
-        <v>1427.741252113633</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O36" t="n">
-        <v>2097.205013416293</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1164.055751909234</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>909.3712637033467</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>619.9540936663861</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7174,7 +7174,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7259,16 +7259,16 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1003.098120067666</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M39" t="n">
-        <v>1771.466266460128</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N39" t="n">
-        <v>1771.466266460128</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3720.806624707064</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3720.806624707064</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929845</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>4437.14914771935</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4419.861810472282</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4419.861810472282</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>4130.444640435321</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>3902.455089537304</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>3902.455089537304</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,46 +7390,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7496,19 +7496,19 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>754.8724882112625</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1062.192621491224</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N42" t="n">
-        <v>1406.713277128842</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4184.086356507268</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C43" t="n">
-        <v>4184.086356507268</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>4184.086356507268</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>4036.173262924875</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>3889.283315426964</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>4666.760395611172</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>4412.075907405285</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W43" t="n">
-        <v>4412.075907405285</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X43" t="n">
-        <v>4184.086356507268</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y43" t="n">
-        <v>4184.086356507268</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7727,16 +7727,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>388.8958536704856</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="L45" t="n">
-        <v>388.8958536704856</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="M45" t="n">
-        <v>783.5490372870998</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N45" t="n">
         <v>1128.069692924718</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>355.2830904386603</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C46" t="n">
-        <v>355.2830904386603</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D46" t="n">
-        <v>205.1664510263246</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>205.1664510263246</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>205.1664510263246</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>205.1664510263246</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>205.1664510263246</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V46" t="n">
-        <v>1275.130855347408</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W46" t="n">
-        <v>985.7136853104475</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X46" t="n">
-        <v>757.7241344124302</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y46" t="n">
-        <v>536.9315552689001</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
   </sheetData>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>262.3629750375226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9023,13 +9023,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>60.8324849552302</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9260,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9491,19 +9491,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,19 +9965,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>58.30844616913055</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,13 +10445,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>154.8713305213813</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10688,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10913,13 +10913,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>333.2188271066956</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>134.9618976893874</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>70.10638700616352</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.4576421095227</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>120.8816614872768</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>180.6647788355648</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>29.89407122271363</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>29.4500873494359</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>72.12838450679934</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>107.0850971676707</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.40850395973517</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>230.7985718450975</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>78.40922646836775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>228.6728233935897</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>20.11463969130676</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>269.1228885239795</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25842,19 +25842,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>204.0484691732808</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>3.549379493893625</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>29.89407122271382</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
   </sheetData>
@@ -26319,28 +26319,28 @@
         <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="F2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="G2" t="n">
+        <v>664749.4015541044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="J2" t="n">
+        <v>664749.4015541044</v>
+      </c>
+      <c r="K2" t="n">
         <v>664749.4015541048</v>
-      </c>
-      <c r="H2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.4015541051</v>
-      </c>
-      <c r="J2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>664749.4015541049</v>
       </c>
       <c r="L2" t="n">
         <v>664749.4015541046</v>
@@ -26349,13 +26349,13 @@
         <v>664749.4015541046</v>
       </c>
       <c r="N2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="O2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.401554105</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.4015541046</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.793690575914</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759207</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905759184</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905759518</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905759314</v>
+        <v>787.7936905758286</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758694</v>
@@ -26450,7 +26450,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758695</v>
@@ -26459,7 +26459,7 @@
         <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114000.5920739321</v>
+        <v>-114000.592073932</v>
       </c>
       <c r="C6" t="n">
         <v>475967.2871406126</v>
       </c>
       <c r="D6" t="n">
-        <v>475967.2871406124</v>
+        <v>475967.2871406126</v>
       </c>
       <c r="E6" t="n">
-        <v>46814.24543791593</v>
+        <v>45839.65417819424</v>
       </c>
       <c r="F6" t="n">
-        <v>571974.2819148123</v>
+        <v>570999.6906550906</v>
       </c>
       <c r="G6" t="n">
-        <v>571974.2819148123</v>
+        <v>570999.6906550903</v>
       </c>
       <c r="H6" t="n">
-        <v>571974.2819148125</v>
+        <v>570999.6906550905</v>
       </c>
       <c r="I6" t="n">
-        <v>571974.2819148125</v>
+        <v>570999.6906550905</v>
       </c>
       <c r="J6" t="n">
-        <v>395551.0627222192</v>
+        <v>394576.4714624971</v>
       </c>
       <c r="K6" t="n">
-        <v>571974.2819148124</v>
+        <v>570999.6906550906</v>
       </c>
       <c r="L6" t="n">
-        <v>571974.2819148122</v>
+        <v>570999.6906550905</v>
       </c>
       <c r="M6" t="n">
-        <v>437173.266680975</v>
+        <v>436198.6754212533</v>
       </c>
       <c r="N6" t="n">
-        <v>571974.281914812</v>
+        <v>570999.6906550906</v>
       </c>
       <c r="O6" t="n">
-        <v>571974.2819148123</v>
+        <v>570999.6906550908</v>
       </c>
       <c r="P6" t="n">
-        <v>571974.2819148126</v>
+        <v>570999.6906550905</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.558856022400924e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26752,34 +26752,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.558856022400924e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545562</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.558856022400924e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>168.5591293140222</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>258.048474970817</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>173.8213507865742</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>118.6827785106055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>188.3421239454323</v>
+        <v>283.7905104653191</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>52.02592219651748</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>216.0899297041124</v>
+        <v>218.8388043680905</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>111.9378832230594</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>108.5731239040509</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.558856022400924e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.558856022400924e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.558856022400924e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.558856022400924e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.558856022400924e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.558856022400924e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.558856022400924e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.558856022400924e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.558856022400924e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.558856022400924e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.558856022400924e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.558856022400924e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.558856022400924e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.558856022400924e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.558856022400924e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29037,10 +29037,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29094,19 +29094,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
-        <v>56.98116194942293</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31372,13 +31372,13 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31609,7 +31609,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31618,7 +31618,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31840,19 +31840,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>238.778605225566</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31861,7 +31861,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -32013,7 +32013,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946992</v>
@@ -32080,28 +32080,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>71.81569903850857</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>353.0329386354462</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,37 +32314,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>4.797192695340925</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,16 +32490,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32560,28 +32560,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>446.84387471592</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,25 +32788,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>384.5241249929169</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,37 +33025,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>210.8242018125564</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,16 +33201,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,22 +33262,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>369.6935619162748</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
@@ -33286,13 +33286,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,37 +33499,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,25 +33736,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>49.10666366745519</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,25 +33885,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33979,16 +33979,16 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>267.7047009035543</v>
+        <v>315.8821359054327</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,28 +34219,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,16 +34386,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,19 +34447,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>102.1045082246905</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>75.06854958273988</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35020,13 +35020,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35257,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>120.2289411155043</v>
+        <v>562.3496350535476</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
         <v>676.2260215178376</v>
@@ -35509,7 +35509,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>10.73738595686864</v>
@@ -35661,7 +35661,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>198.4394970767282</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>585.3189041590311</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>371.2568620056964</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>352.7978549555611</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>770.4149045439016</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>635.790199825202</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>462.0902766448415</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>717.694224176495</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>146.3214789542047</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37089,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>242.8843633064554</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>233.5950248930621</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>499.9906664271393</v>
+        <v>548.1681014290177</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>615.5825293478038</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>398.6395794107215</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38119,7 +38119,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3483455.72351857</v>
+        <v>3488394.986367603</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520755.3895679683</v>
+        <v>517990.1492864679</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8239990.211329146</v>
+        <v>8239990.211329147</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>238.3169164276892</v>
+        <v>203.5898081986967</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>78.31629253725379</v>
+        <v>234.4871813790489</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210771</v>
+        <v>148.8271244776258</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>177.9498744325401</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>82.68176919716252</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417142</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>182.0312563176645</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>106.2501394820175</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113201</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750038</v>
+        <v>96.84207451769419</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206854</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056523</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274313</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>122.6519788371609</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113201</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>173.309831990233</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113188</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>76.48708851141302</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>81.23424437140437</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>3.347695664763696</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>55.43878055347988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002187</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>57.5645290049876</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3477,7 +3477,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056524</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>57.69520250663707</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>143.2925104849745</v>
+        <v>143.2925104849754</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>191.6534898356754</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>215.6214853475431</v>
       </c>
     </row>
   </sheetData>
@@ -4309,16 +4309,16 @@
         <v>1216.807289433107</v>
       </c>
       <c r="C2" t="n">
-        <v>847.844772492695</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="D2" t="n">
-        <v>847.844772492695</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="E2" t="n">
-        <v>462.0565198944508</v>
+        <v>831.0190368348624</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073964</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.6044479702274</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>359.6044479702274</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>359.6044479702274</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>649.021618007188</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="W4" t="n">
-        <v>359.6044479702274</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X4" t="n">
-        <v>359.6044479702274</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.6044479702274</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="5">
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>548.3816362947775</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4883,19 +4883,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
         <v>99.59950625323012</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>548.3816362947775</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>320.3920853967602</v>
+        <v>615.1951264770637</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>394.4025473335336</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003444</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
         <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>1009.263896089485</v>
+        <v>970.0833206816482</v>
       </c>
       <c r="N12" t="n">
-        <v>1353.784551727103</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O12" t="n">
-        <v>2023.248313029762</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P12" t="n">
         <v>2543.548934765509</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376.9270045185177</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C13" t="n">
-        <v>376.9270045185177</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185177</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="V13" t="n">
-        <v>1115.126304597026</v>
+        <v>1044.311772267569</v>
       </c>
       <c r="W13" t="n">
-        <v>825.7091345600652</v>
+        <v>754.8946022306079</v>
       </c>
       <c r="X13" t="n">
-        <v>597.7195836620479</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y13" t="n">
-        <v>376.9270045185177</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155913</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805494</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="15">
@@ -5354,16 +5354,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L15" t="n">
-        <v>802.0403666355641</v>
+        <v>802.0403666355633</v>
       </c>
       <c r="M15" t="n">
         <v>1570.408513028025</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5512,55 +5512,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L18" t="n">
-        <v>836.4717212750119</v>
+        <v>836.4717212750122</v>
       </c>
       <c r="M18" t="n">
-        <v>1604.839867667473</v>
+        <v>1604.839867667474</v>
       </c>
       <c r="N18" t="n">
-        <v>1954.109744073479</v>
+        <v>1954.109744073478</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765196</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706327</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336721</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155913</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805494</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822487</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="21">
@@ -5819,25 +5819,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047987</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M21" t="n">
         <v>1890.372576454149</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>318.009670603816</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028583</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155913</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805494</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="24">
@@ -6056,28 +6056,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047987</v>
       </c>
       <c r="L24" t="n">
-        <v>1122.004430061687</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M24" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>213.9110074201016</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C25" t="n">
-        <v>213.9110074201016</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D25" t="n">
-        <v>213.9110074201016</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E25" t="n">
-        <v>213.9110074201016</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247869</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201016</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9110074201016</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.193237080548</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6238,40 +6238,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6293,7 +6293,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
@@ -6302,19 +6302,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047987</v>
       </c>
       <c r="L27" t="n">
-        <v>1122.004430061687</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M27" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>493.0701069575856</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C28" t="n">
-        <v>493.0701069575856</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D28" t="n">
-        <v>415.8104215925219</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925219</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1416.861478263555</v>
       </c>
       <c r="U28" t="n">
-        <v>964.135741824786</v>
+        <v>1127.732839477114</v>
       </c>
       <c r="V28" t="n">
-        <v>964.135741824786</v>
+        <v>873.0483512712267</v>
       </c>
       <c r="W28" t="n">
-        <v>674.7185717878253</v>
+        <v>583.631181234266</v>
       </c>
       <c r="X28" t="n">
-        <v>674.7185717878253</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="Y28" t="n">
-        <v>674.7185717878253</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6530,7 +6530,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
@@ -6539,22 +6539,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="M30" t="n">
-        <v>417.5524109899876</v>
+        <v>417.5524109899877</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O30" t="n">
         <v>1797.533454227377</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1495.534759785415</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U31" t="n">
-        <v>1219.13208711157</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V31" t="n">
-        <v>964.447598905683</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W31" t="n">
-        <v>675.0304288687223</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X31" t="n">
-        <v>447.040877970705</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>447.040877970705</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="32">
@@ -6697,34 +6697,34 @@
         <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231263</v>
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L33" t="n">
-        <v>1122.004430061687</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M33" t="n">
         <v>1890.372576454149</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1017.064856369034</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7025,10 +7025,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605669</v>
+        <v>323.658114660566</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O36" t="n">
         <v>1797.533454227377</v>
@@ -7095,16 +7095,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,28 +7113,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765196</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706327</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336721</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7165,37 +7165,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,13 +7256,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047987</v>
       </c>
       <c r="L39" t="n">
-        <v>1050.793780719526</v>
+        <v>1050.793780719525</v>
       </c>
       <c r="M39" t="n">
-        <v>1819.161927111988</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028584</v>
@@ -7332,16 +7332,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765196</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706327</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,13 +7493,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047987</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M42" t="n">
-        <v>1819.161927111988</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7569,16 +7569,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,22 +7587,22 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V43" t="n">
         <v>1354.17636097712</v>
@@ -7648,28 +7648,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,16 +7730,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>323.6581146605669</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>323.6581146605669</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605669</v>
+        <v>323.658114660566</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O45" t="n">
         <v>1797.533454227377</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7806,16 +7806,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T46" t="n">
-        <v>1305.326886885503</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1016.198248099061</v>
+        <v>786.0822064765196</v>
       </c>
       <c r="V46" t="n">
-        <v>761.5137598931742</v>
+        <v>786.0822064765196</v>
       </c>
       <c r="W46" t="n">
-        <v>472.0965898562135</v>
+        <v>496.6650364395589</v>
       </c>
       <c r="X46" t="n">
-        <v>244.1070389581962</v>
+        <v>496.6650364395589</v>
       </c>
       <c r="Y46" t="n">
-        <v>244.1070389581962</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10673,7 +10673,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8623401849285</v>
+        <v>370.8623401849275</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>370.8623401849275</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>70.10638700616352</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>119.4595159070196</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338548</v>
+        <v>124.7054865406951</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338483</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>75.2688311464423</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338565</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>29.89407122271363</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>112.9275204083444</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>72.12838450679934</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>140.3133166869849</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>194.5731143188395</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>230.7985718450975</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338452</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>228.6728233935897</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>228.8277958299539</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25845,7 +25845,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>108.8451328388535</v>
+        <v>108.8451328388526</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>29.89407122271382</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>2.963168004551733</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="11">
@@ -26316,13 +26316,13 @@
         <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="F2" t="n">
         <v>664749.4015541048</v>
@@ -26331,31 +26331,31 @@
         <v>664749.4015541044</v>
       </c>
       <c r="H2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="I2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.401554105</v>
       </c>
       <c r="J2" t="n">
-        <v>664749.4015541044</v>
+        <v>664749.401554105</v>
       </c>
       <c r="K2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="L2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.401554105</v>
       </c>
       <c r="M2" t="n">
         <v>664749.4015541046</v>
       </c>
       <c r="N2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="O2" t="n">
         <v>664749.401554105</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541048</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338374</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757471</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757587</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757587</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759184</v>
+        <v>787.7936905757587</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757587</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758286</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="O4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871668</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871668</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871668</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871668</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871668</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-114000.592073932</v>
       </c>
       <c r="C6" t="n">
-        <v>475967.2871406126</v>
+        <v>475967.2871406127</v>
       </c>
       <c r="D6" t="n">
-        <v>475967.2871406126</v>
+        <v>475967.2871406128</v>
       </c>
       <c r="E6" t="n">
-        <v>45839.65417819424</v>
+        <v>46716.78631194332</v>
       </c>
       <c r="F6" t="n">
-        <v>570999.6906550906</v>
+        <v>571876.8227888402</v>
       </c>
       <c r="G6" t="n">
-        <v>570999.6906550903</v>
+        <v>571876.8227888398</v>
       </c>
       <c r="H6" t="n">
-        <v>570999.6906550905</v>
+        <v>571876.8227888403</v>
       </c>
       <c r="I6" t="n">
-        <v>570999.6906550905</v>
+        <v>571876.8227888404</v>
       </c>
       <c r="J6" t="n">
-        <v>394576.4714624971</v>
+        <v>395453.6035962474</v>
       </c>
       <c r="K6" t="n">
-        <v>570999.6906550906</v>
+        <v>571876.8227888402</v>
       </c>
       <c r="L6" t="n">
-        <v>570999.6906550905</v>
+        <v>571876.8227888405</v>
       </c>
       <c r="M6" t="n">
-        <v>436198.6754212533</v>
+        <v>437075.8075550026</v>
       </c>
       <c r="N6" t="n">
-        <v>570999.6906550906</v>
+        <v>571876.8227888403</v>
       </c>
       <c r="O6" t="n">
-        <v>570999.6906550908</v>
+        <v>571876.8227888404</v>
       </c>
       <c r="P6" t="n">
-        <v>570999.6906550905</v>
+        <v>571876.8227888402</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
     </row>
     <row r="4">
@@ -26798,25 +26798,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545562</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990184</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>168.5591293140222</v>
+        <v>203.2862375430147</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27554,7 +27554,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>173.8213507865742</v>
+        <v>17.65046194477912</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>63.37316471551392</v>
+        <v>137.6958738589652</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>108.5731239040509</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>143.0278861918746</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-2.701199264265597e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-2.444267011014745e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-2.444267011014745e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28818,10 +28818,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-2.1029325708476e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-3.823395790217828e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -31375,10 +31375,10 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31618,7 +31618,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>73.87984549392741</v>
+        <v>149.8971812516343</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31849,16 +31849,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>238.778605225566</v>
+        <v>199.2022664297717</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31867,13 +31867,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,28 +31989,28 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O14" t="n">
         <v>562.4526372540889</v>
@@ -32019,19 +32019,19 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32083,13 +32083,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>353.0329386354462</v>
+        <v>353.0329386354452</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32104,13 +32104,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -32320,16 +32320,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N18" t="n">
-        <v>4.797192695340925</v>
+        <v>4.797192695339788</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32341,13 +32341,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N21" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508796</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32578,13 +32578,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>380.6284621420188</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508796</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32815,13 +32815,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>380.6284621420188</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508796</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33052,13 +33052,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -33274,28 +33274,28 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>369.6935619162748</v>
+        <v>369.693561916274</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647462</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,28 +33490,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N33" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508796</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33526,13 +33526,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446455</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -33748,28 +33748,28 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304417</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,28 +33964,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L39" t="n">
-        <v>315.8821359054327</v>
+        <v>315.8821359054318</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34000,13 +34000,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647471</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,28 +34201,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M42" t="n">
-        <v>380.6284621420188</v>
+        <v>380.6284621420179</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34237,13 +34237,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446455</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>102.1045082246905</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -34459,28 +34459,28 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>562.3496350535476</v>
+        <v>522.7732962577533</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415667</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951475</v>
@@ -35667,10 +35667,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>585.3189041590311</v>
+        <v>585.3189041590302</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415667</v>
       </c>
       <c r="O15" t="n">
         <v>251.2660748322851</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N18" t="n">
-        <v>352.7978549555611</v>
+        <v>352.79785495556</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.226021517838</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N21" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989110998</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M24" t="n">
-        <v>704.1994919700004</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989110998</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M27" t="n">
-        <v>704.1994919700004</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989110998</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>717.694224176495</v>
+        <v>717.6942241764942</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>676.226021517838</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502014</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N33" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989110998</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7283062629101</v>
+        <v>228.7283062629092</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415667</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>676.226021517838</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109049</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L39" t="n">
-        <v>548.1681014290177</v>
+        <v>548.1681014290168</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415667</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502023</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M42" t="n">
-        <v>704.1994919700004</v>
+        <v>704.1994919699995</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415667</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>228.7283062629101</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>228.7283062629092</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415667</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>676.226021517838</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
